--- a/test3.xlsx
+++ b/test3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
   <si>
     <t>lrsound</t>
   </si>
@@ -73,22 +73,22 @@
     <t>splay</t>
   </si>
   <si>
-    <t>test3_audio/clip.wav</t>
-  </si>
-  <si>
-    <t>crypt</t>
-  </si>
-  <si>
-    <t>clip</t>
-  </si>
-  <si>
-    <t>test3_audio/clumsy.wav</t>
-  </si>
-  <si>
-    <t>crumb</t>
-  </si>
-  <si>
-    <t>clumsy</t>
+    <t>test3_audio/rate.wav</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>test3_audio/ride.wav</t>
+  </si>
+  <si>
+    <t>lied</t>
+  </si>
+  <si>
+    <t>ride</t>
   </si>
   <si>
     <t>test3_audio/brunt.wav</t>
@@ -100,13 +100,13 @@
     <t>blunt</t>
   </si>
   <si>
-    <t>test3_audio/glimpse.wav</t>
-  </si>
-  <si>
-    <t>grim</t>
-  </si>
-  <si>
-    <t>glimpse</t>
+    <t>test3_audio/raise.wav</t>
+  </si>
+  <si>
+    <t>laze</t>
+  </si>
+  <si>
+    <t>raise</t>
   </si>
   <si>
     <t>test3_audio/cloak.wav</t>
@@ -118,22 +118,22 @@
     <t>cloak</t>
   </si>
   <si>
-    <t>test3_audio/laundry.wav</t>
-  </si>
-  <si>
-    <t>laundry</t>
-  </si>
-  <si>
-    <t>secondly</t>
-  </si>
-  <si>
-    <t>test3_audio/fondly.wav</t>
-  </si>
-  <si>
-    <t>foundry</t>
-  </si>
-  <si>
-    <t>fondly</t>
+    <t>test3_audio/lamp.wav</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>test3_audio/grow.wav</t>
+  </si>
+  <si>
+    <t>glow</t>
+  </si>
+  <si>
+    <t>grow</t>
   </si>
   <si>
     <t>test3_audio/glaze.wav</t>
@@ -262,7 +262,52 @@
     <t>lay</t>
   </si>
   <si>
-    <t>test3_audio/fen.wav</t>
+    <t>test3_audio/coal.wav</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>test3_audio/blue.wav</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>brew</t>
+  </si>
+  <si>
+    <t>test3_audio/reek.wav</t>
+  </si>
+  <si>
+    <t>leek</t>
+  </si>
+  <si>
+    <t>reek</t>
+  </si>
+  <si>
+    <t>test3_audio/lump.wav</t>
+  </si>
+  <si>
+    <t>lump</t>
+  </si>
+  <si>
+    <t>rump</t>
+  </si>
+  <si>
+    <t>test3_audio/blush.wav</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>blush</t>
+  </si>
+  <si>
+    <t>test3_audio/pen.wav</t>
   </si>
   <si>
     <t>foil</t>
@@ -319,7 +364,7 @@
     <t>spy</t>
   </si>
   <si>
-    <t>test3_audio/start.wav</t>
+    <t>test3_audio/smart.wav</t>
   </si>
   <si>
     <t>start</t>
@@ -328,7 +373,7 @@
     <t>smart</t>
   </si>
   <si>
-    <t>test3_audio/devide.wav</t>
+    <t>test3_audio/decide.wav</t>
   </si>
   <si>
     <t>decide</t>
@@ -337,13 +382,22 @@
     <t>devide</t>
   </si>
   <si>
-    <t>test3_audio/coffee.wav</t>
+    <t>test3_audio/copy.wav</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
     <t>copy</t>
+  </si>
+  <si>
+    <t>test3_audio/blog.wav</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>vlog</t>
   </si>
 </sst>
 </file>
@@ -357,7 +411,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -380,13 +433,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -422,6 +476,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -439,6 +495,8 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -456,6 +514,8 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -473,6 +533,8 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -490,6 +552,8 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -507,6 +571,8 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -524,6 +590,8 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -541,6 +609,8 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -558,6 +628,8 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -575,6 +647,8 @@
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -592,6 +666,8 @@
       <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -609,6 +685,8 @@
       <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -626,6 +704,8 @@
       <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -643,6 +723,8 @@
       <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -660,6 +742,8 @@
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -677,6 +761,8 @@
       <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -694,6 +780,8 @@
       <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -711,6 +799,8 @@
       <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -728,6 +818,8 @@
       <c r="E19" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -745,6 +837,8 @@
       <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -762,6 +856,8 @@
       <c r="E21" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -779,6 +875,8 @@
       <c r="E22" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -796,6 +894,8 @@
       <c r="E23" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -813,6 +913,8 @@
       <c r="E24" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -830,6 +932,8 @@
       <c r="E25" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -847,6 +951,8 @@
       <c r="E26" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -856,92 +962,102 @@
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
@@ -949,6 +1065,8 @@
       <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -958,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>103</v>
@@ -966,6 +1084,8 @@
       <c r="E33" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
@@ -975,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>106</v>
@@ -983,6 +1103,8 @@
       <c r="E34" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
@@ -992,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>109</v>
@@ -1000,6 +1122,122 @@
       <c r="E35" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
